--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medicationadministration-dosageroute-routecomment.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medicationadministration-dosageroute-routecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageRouteComment_VS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -683,7 +689,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.95703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1267,13 +1273,11 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1303,7 +1307,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>
